--- a/menulist.xlsx
+++ b/menulist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/IOIOIOIONA_php/20220526_project_server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56A5EEB0-F1C8-7942-B3FC-B0929B4AA2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E7BD91-9EA7-8A45-8B76-06ABAD83D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{E78A6393-0E58-294E-9EBF-642CFE16FF32}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>menu_photo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t xml:space="preserve">created_at	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_categories</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,22 +589,25 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
@@ -611,735 +618,735 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>381.4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>70</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>90</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>293.39999999999998</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>70</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>90</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>266.7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>70</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>90</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>260.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>90</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>23.4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>65</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>23.4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>50</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>65</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>371.3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>80</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>100</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>275.39999999999998</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>80</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>100</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>368</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>80</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>100</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>289.60000000000002</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>80</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>100</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>375.2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>80</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>100</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>299</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>80</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>100</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>15.5</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>60</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>80</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>15.5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>60</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>80</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>267.7</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>80</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>100</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>214.3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>80</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>100</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>7.2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>100</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>50</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>40</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>345</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>50</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>378</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>60</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>187.5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>50</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>456.2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>60</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>345.1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>50</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>399.6</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>60</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>356.2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>60</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>422.6</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>60</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>400.3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>70</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>358.7</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>55</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>400</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>55</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>516.9</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>75</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>322.10000000000002</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>55</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>312.7</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>45</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>315.60000000000002</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>45</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>300.8</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>55</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>270</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>50</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>295.2</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>60</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>296.89999999999998</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>60</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>260.5</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>60</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
